--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -70,49 +70,52 @@
     <t>hand</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>join</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
+    <t>relief</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -121,19 +124,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7294520547945206</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4074074074074074</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -660,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.374031007751938</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C5">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D5">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -710,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2416107382550336</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -728,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -760,13 +757,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -778,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -786,13 +783,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -804,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -812,13 +809,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -830,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -838,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -856,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -864,13 +861,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -882,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -890,13 +887,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -908,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -916,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7875</v>
+        <v>0.78125</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -934,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -942,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -968,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -997,10 +994,10 @@
         <v>0.75</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1012,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1020,13 +1017,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.7421875</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1046,13 +1043,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1072,13 +1069,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6984126984126984</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1098,13 +1095,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6511627906976745</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1124,13 +1121,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6264705882352941</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1150,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.62</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1176,13 +1173,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5941422594142259</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1202,13 +1199,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5864406779661017</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L24">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="M24">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1228,13 +1225,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5857142857142857</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1254,13 +1251,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5538461538461539</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1280,13 +1277,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5212765957446809</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1298,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1306,13 +1303,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5168539325842697</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1324,33 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
